--- a/Docenza_Conti_UFS01 - Sistemi Operativi e gestione della concorrenza _OLD.xlsx
+++ b/Docenza_Conti_UFS01 - Sistemi Operativi e gestione della concorrenza _OLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingconti/Library/Mobile Documents/com~apple~CloudDocs/ITS_RIZZOLI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BigSur_110/Users/ingconti/Documents/GIT-BigSur/its_rizzoli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C53A8-1DF9-5748-93FC-7CBDAB0345AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45D0604-F307-7145-BE89-9301BA64E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36280" yWindow="-5520" windowWidth="25440" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="8700" windowWidth="29320" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lezioni_Docenti (22)" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
